--- a/biology/Zoologie/Caïque_de_Salvin/Caïque_de_Salvin.xlsx
+++ b/biology/Zoologie/Caïque_de_Salvin/Caïque_de_Salvin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_de_Salvin</t>
+          <t>Caïque_de_Salvin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hapalopsittaca pyrrhops
 Le Caïque de Salvin (Hapalopsittaca pyrrhops) est une espèce d'oiseau appartenant à la famille des Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_de_Salvin</t>
+          <t>Caïque_de_Salvin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 23 cm de long. Le plumage a une dominante verte. Les rémiges sont bleues et les épaules et les rectrices sont rouges. Les iris sont jaune clair et les cercles oculaires bleu azur. Le bec est jaunâtre. Les pattes sont grises. Proche du Caïque à face rouge, il s'en distingue par un masque facial totalement rouge, la calotte jaune, la nuque bleu azur et des zones périauriculaires dorées.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_de_Salvin</t>
+          <t>Caïque_de_Salvin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau vit dans les forêts de montagnes du sud-ouest de l'Équateur et du nord-ouest du Pérou entre 2 200 et 3 150 m d'altitude[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit dans les forêts de montagnes du sud-ouest de l'Équateur et du nord-ouest du Pérou entre 2 200 et 3 150 m d'altitude.
 </t>
         </is>
       </c>
